--- a/contratos/contratos-10-2013.xlsx
+++ b/contratos/contratos-10-2013.xlsx
@@ -832,7 +832,7 @@
     <t>IMEL INGENIERIA Y MATERIALES ELECTRICOS S.R.L.</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>LAMBERT CARLOS MIGUEL</t>
@@ -850,7 +850,7 @@
     <t>PEREZ DANIEL RUBEN</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>YLUM S.A.</t>
@@ -859,7 +859,7 @@
     <t>A. ROPELATO S.R.L.</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>ARGACHA HIRINSON</t>
@@ -976,7 +976,7 @@
     <t>ELECTRONICA MEGATONE S.A.</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>COOPERATIVA DE TRABAJO NOROESTE LTDA</t>
@@ -1000,7 +1000,7 @@
     <t>BIDAL RODOLFO CESAR</t>
   </si>
   <si>
-    <t>TRABICHET MARIA, VERGARA ADEL Y OTRA</t>
+    <t>TRABICHET MARIA. VERGARA ADEL Y OTRA</t>
   </si>
   <si>
     <t>BOZZI GUSTAVO LEONARDO</t>
@@ -1012,7 +1012,7 @@
     <t>ORGANIZACION DELASOIE HNOS. S.A.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>CRUCIJUEGOS S.R.L.</t>
@@ -1633,772 +1633,772 @@
     <t>32</t>
   </si>
   <si>
-    <t>1.850,00</t>
-  </si>
-  <si>
-    <t>4.350,00</t>
-  </si>
-  <si>
-    <t>3.520,00</t>
-  </si>
-  <si>
-    <t>1.935,00</t>
-  </si>
-  <si>
-    <t>10.050,00</t>
-  </si>
-  <si>
-    <t>6.254,00</t>
-  </si>
-  <si>
-    <t>45.526,00</t>
-  </si>
-  <si>
-    <t>3.700,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>48.950,00</t>
-  </si>
-  <si>
-    <t>199.263,50</t>
-  </si>
-  <si>
-    <t>7,60</t>
-  </si>
-  <si>
-    <t>319,50</t>
-  </si>
-  <si>
-    <t>267.953,15</t>
-  </si>
-  <si>
-    <t>121.000,00</t>
-  </si>
-  <si>
-    <t>14.036,00</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>17.000,00</t>
-  </si>
-  <si>
-    <t>102.320,00</t>
-  </si>
-  <si>
-    <t>233.508,34</t>
-  </si>
-  <si>
-    <t>15.063,40</t>
-  </si>
-  <si>
-    <t>84.304,01</t>
-  </si>
-  <si>
-    <t>15.527,50</t>
-  </si>
-  <si>
-    <t>5.521,19</t>
-  </si>
-  <si>
-    <t>11.811,44</t>
-  </si>
-  <si>
-    <t>8.645,00</t>
-  </si>
-  <si>
-    <t>8.920,00</t>
-  </si>
-  <si>
-    <t>910,00</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>3.120,00</t>
-  </si>
-  <si>
-    <t>14.664,00</t>
-  </si>
-  <si>
-    <t>10.400,85</t>
-  </si>
-  <si>
-    <t>982,00</t>
-  </si>
-  <si>
-    <t>184,60</t>
-  </si>
-  <si>
-    <t>40,00</t>
-  </si>
-  <si>
-    <t>14,80</t>
-  </si>
-  <si>
-    <t>495,00</t>
-  </si>
-  <si>
-    <t>2.300,00</t>
-  </si>
-  <si>
-    <t>3.347,80</t>
-  </si>
-  <si>
-    <t>48.971,83</t>
-  </si>
-  <si>
-    <t>440,00</t>
-  </si>
-  <si>
-    <t>13.856,58</t>
-  </si>
-  <si>
-    <t>137,00</t>
-  </si>
-  <si>
-    <t>109,35</t>
-  </si>
-  <si>
-    <t>612,72</t>
-  </si>
-  <si>
-    <t>833,50</t>
-  </si>
-  <si>
-    <t>602,00</t>
-  </si>
-  <si>
-    <t>42.130,50</t>
-  </si>
-  <si>
-    <t>50,00</t>
-  </si>
-  <si>
-    <t>80,00</t>
-  </si>
-  <si>
-    <t>17.294,50</t>
-  </si>
-  <si>
-    <t>498,19</t>
-  </si>
-  <si>
-    <t>292,24</t>
-  </si>
-  <si>
-    <t>316,00</t>
-  </si>
-  <si>
-    <t>2.850,00</t>
-  </si>
-  <si>
-    <t>20.549,55</t>
-  </si>
-  <si>
-    <t>334,00</t>
-  </si>
-  <si>
-    <t>172,00</t>
-  </si>
-  <si>
-    <t>4.779,35</t>
-  </si>
-  <si>
-    <t>140,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>38.937,78</t>
-  </si>
-  <si>
-    <t>5.471,00</t>
-  </si>
-  <si>
-    <t>5.105,00</t>
-  </si>
-  <si>
-    <t>13.925,48</t>
-  </si>
-  <si>
-    <t>1.346,85</t>
-  </si>
-  <si>
-    <t>2.802,31</t>
-  </si>
-  <si>
-    <t>106.467,09</t>
-  </si>
-  <si>
-    <t>105.304,72</t>
-  </si>
-  <si>
-    <t>763,20</t>
-  </si>
-  <si>
-    <t>213,55</t>
-  </si>
-  <si>
-    <t>695,00</t>
-  </si>
-  <si>
-    <t>7,28</t>
-  </si>
-  <si>
-    <t>70.076,66</t>
-  </si>
-  <si>
-    <t>6.805,24</t>
-  </si>
-  <si>
-    <t>2.060,80</t>
-  </si>
-  <si>
-    <t>740,00</t>
-  </si>
-  <si>
-    <t>1.900,00</t>
-  </si>
-  <si>
-    <t>1.965,50</t>
-  </si>
-  <si>
-    <t>45,00</t>
-  </si>
-  <si>
-    <t>337,87</t>
-  </si>
-  <si>
-    <t>2.412,90</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>1.329,16</t>
-  </si>
-  <si>
-    <t>2.865,00</t>
-  </si>
-  <si>
-    <t>100.148,00</t>
-  </si>
-  <si>
-    <t>31.400,00</t>
-  </si>
-  <si>
-    <t>1.768,04</t>
-  </si>
-  <si>
-    <t>2.612,22</t>
-  </si>
-  <si>
-    <t>1.717,05</t>
-  </si>
-  <si>
-    <t>1.327,76</t>
-  </si>
-  <si>
-    <t>48,28</t>
-  </si>
-  <si>
-    <t>12.250,00</t>
-  </si>
-  <si>
-    <t>807,00</t>
-  </si>
-  <si>
-    <t>2.371,77</t>
-  </si>
-  <si>
-    <t>11.400,00</t>
-  </si>
-  <si>
-    <t>77,00</t>
-  </si>
-  <si>
-    <t>17.834,00</t>
-  </si>
-  <si>
-    <t>2.180,00</t>
-  </si>
-  <si>
-    <t>592,14</t>
-  </si>
-  <si>
-    <t>1.299,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>66.000,00</t>
-  </si>
-  <si>
-    <t>2.620,00</t>
-  </si>
-  <si>
-    <t>15.804,00</t>
-  </si>
-  <si>
-    <t>1.420,00</t>
-  </si>
-  <si>
-    <t>780,00</t>
-  </si>
-  <si>
-    <t>6.090,00</t>
-  </si>
-  <si>
-    <t>18.131,95</t>
-  </si>
-  <si>
-    <t>66.976,00</t>
-  </si>
-  <si>
-    <t>396,00</t>
-  </si>
-  <si>
-    <t>930,00</t>
-  </si>
-  <si>
-    <t>707,60</t>
-  </si>
-  <si>
-    <t>225,00</t>
-  </si>
-  <si>
-    <t>83.008,00</t>
-  </si>
-  <si>
-    <t>770,80</t>
-  </si>
-  <si>
-    <t>2.010,00</t>
-  </si>
-  <si>
-    <t>687,64</t>
-  </si>
-  <si>
-    <t>79,00</t>
-  </si>
-  <si>
-    <t>111,90</t>
-  </si>
-  <si>
-    <t>318,90</t>
-  </si>
-  <si>
-    <t>52.000,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>1,38</t>
-  </si>
-  <si>
-    <t>540.000,00</t>
-  </si>
-  <si>
-    <t>60.815,93</t>
-  </si>
-  <si>
-    <t>130,29</t>
-  </si>
-  <si>
-    <t>681,25</t>
-  </si>
-  <si>
-    <t>19,30</t>
-  </si>
-  <si>
-    <t>30,00</t>
-  </si>
-  <si>
-    <t>86,00</t>
-  </si>
-  <si>
-    <t>138,80</t>
-  </si>
-  <si>
-    <t>19,78</t>
-  </si>
-  <si>
-    <t>3.843,05</t>
-  </si>
-  <si>
-    <t>273,98</t>
-  </si>
-  <si>
-    <t>260,00</t>
-  </si>
-  <si>
-    <t>3.691,00</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>41,90</t>
-  </si>
-  <si>
-    <t>199,33</t>
-  </si>
-  <si>
-    <t>453,00</t>
-  </si>
-  <si>
-    <t>2.280,00</t>
-  </si>
-  <si>
-    <t>126,64</t>
-  </si>
-  <si>
-    <t>12.704,90</t>
-  </si>
-  <si>
-    <t>980,10</t>
-  </si>
-  <si>
-    <t>2.871,26</t>
-  </si>
-  <si>
-    <t>397,28</t>
-  </si>
-  <si>
-    <t>8.400,00</t>
-  </si>
-  <si>
-    <t>745,00</t>
-  </si>
-  <si>
-    <t>3.212,34</t>
-  </si>
-  <si>
-    <t>6.510,00</t>
-  </si>
-  <si>
-    <t>5.754,00</t>
-  </si>
-  <si>
-    <t>280,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>1.267,70</t>
-  </si>
-  <si>
-    <t>38.700,00</t>
-  </si>
-  <si>
-    <t>20.357,00</t>
-  </si>
-  <si>
-    <t>9.200,00</t>
-  </si>
-  <si>
-    <t>2.750,00</t>
-  </si>
-  <si>
-    <t>6.400,00</t>
-  </si>
-  <si>
-    <t>1.250,00</t>
-  </si>
-  <si>
-    <t>1.260,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>8.490,00</t>
-  </si>
-  <si>
-    <t>1.300,00</t>
-  </si>
-  <si>
-    <t>1.480,32</t>
-  </si>
-  <si>
-    <t>823,30</t>
-  </si>
-  <si>
-    <t>10.600,00</t>
-  </si>
-  <si>
-    <t>73,27</t>
-  </si>
-  <si>
-    <t>102,25</t>
-  </si>
-  <si>
-    <t>2.826,55</t>
-  </si>
-  <si>
-    <t>524,12</t>
-  </si>
-  <si>
-    <t>132.344,00</t>
-  </si>
-  <si>
-    <t>5.040,00</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>850,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>7.453,60</t>
-  </si>
-  <si>
-    <t>384,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>17.608,51</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>290,00</t>
-  </si>
-  <si>
-    <t>8.720,00</t>
-  </si>
-  <si>
-    <t>640,00</t>
-  </si>
-  <si>
-    <t>670,00</t>
-  </si>
-  <si>
-    <t>3.146,00</t>
-  </si>
-  <si>
-    <t>2.769,20</t>
-  </si>
-  <si>
-    <t>70,00</t>
-  </si>
-  <si>
-    <t>4.800,00</t>
-  </si>
-  <si>
-    <t>2.590,00</t>
-  </si>
-  <si>
-    <t>1.658,19</t>
-  </si>
-  <si>
-    <t>87.715,00</t>
-  </si>
-  <si>
-    <t>4.640,00</t>
-  </si>
-  <si>
-    <t>282,00</t>
-  </si>
-  <si>
-    <t>985,78</t>
-  </si>
-  <si>
-    <t>434,00</t>
-  </si>
-  <si>
-    <t>5.089,00</t>
-  </si>
-  <si>
-    <t>9.301,75</t>
-  </si>
-  <si>
-    <t>2.276,88</t>
-  </si>
-  <si>
-    <t>27.483,00</t>
-  </si>
-  <si>
-    <t>2.100,00</t>
-  </si>
-  <si>
-    <t>14.571,59</t>
-  </si>
-  <si>
-    <t>60,00</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>34,80</t>
-  </si>
-  <si>
-    <t>2.099,64</t>
-  </si>
-  <si>
-    <t>6.514,16</t>
-  </si>
-  <si>
-    <t>12.504,36</t>
-  </si>
-  <si>
-    <t>4.267,29</t>
-  </si>
-  <si>
-    <t>62,20</t>
-  </si>
-  <si>
-    <t>4.801,70</t>
-  </si>
-  <si>
-    <t>495,30</t>
-  </si>
-  <si>
-    <t>99,52</t>
-  </si>
-  <si>
-    <t>680,00</t>
-  </si>
-  <si>
-    <t>419,90</t>
-  </si>
-  <si>
-    <t>247,00</t>
-  </si>
-  <si>
-    <t>18.525,00</t>
-  </si>
-  <si>
-    <t>4.981,00</t>
-  </si>
-  <si>
-    <t>528,00</t>
-  </si>
-  <si>
-    <t>40,98</t>
-  </si>
-  <si>
-    <t>388,49</t>
-  </si>
-  <si>
-    <t>1.598,40</t>
-  </si>
-  <si>
-    <t>9.920,39</t>
-  </si>
-  <si>
-    <t>8.728,16</t>
-  </si>
-  <si>
-    <t>829,80</t>
-  </si>
-  <si>
-    <t>191.659,77</t>
-  </si>
-  <si>
-    <t>7.311,46</t>
-  </si>
-  <si>
-    <t>2.297,97</t>
-  </si>
-  <si>
-    <t>19.500,00</t>
-  </si>
-  <si>
-    <t>1.050,00</t>
-  </si>
-  <si>
-    <t>1.580,00</t>
-  </si>
-  <si>
-    <t>119.923,42</t>
-  </si>
-  <si>
-    <t>433.000,00</t>
-  </si>
-  <si>
-    <t>75.000,00</t>
-  </si>
-  <si>
-    <t>126.000,00</t>
-  </si>
-  <si>
-    <t>40.000,00</t>
-  </si>
-  <si>
-    <t>50.000,00</t>
-  </si>
-  <si>
-    <t>233.666,00</t>
-  </si>
-  <si>
-    <t>461.000,00</t>
-  </si>
-  <si>
-    <t>223.000,00</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>378.590,05</t>
-  </si>
-  <si>
-    <t>690,00</t>
-  </si>
-  <si>
-    <t>174.600,00</t>
-  </si>
-  <si>
-    <t>3.128,44</t>
-  </si>
-  <si>
-    <t>36.163,36</t>
-  </si>
-  <si>
-    <t>62.300,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>349.125,00</t>
-  </si>
-  <si>
-    <t>6.200,00</t>
-  </si>
-  <si>
-    <t>15,40</t>
-  </si>
-  <si>
-    <t>1.510,00</t>
+    <t>1850.00</t>
+  </si>
+  <si>
+    <t>4350.00</t>
+  </si>
+  <si>
+    <t>3520.00</t>
+  </si>
+  <si>
+    <t>1935.00</t>
+  </si>
+  <si>
+    <t>10050.00</t>
+  </si>
+  <si>
+    <t>6254.00</t>
+  </si>
+  <si>
+    <t>45526.00</t>
+  </si>
+  <si>
+    <t>3700.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>48950.00</t>
+  </si>
+  <si>
+    <t>199263.50</t>
+  </si>
+  <si>
+    <t>7.60</t>
+  </si>
+  <si>
+    <t>319.50</t>
+  </si>
+  <si>
+    <t>267953.15</t>
+  </si>
+  <si>
+    <t>121000.00</t>
+  </si>
+  <si>
+    <t>14036.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>17000.00</t>
+  </si>
+  <si>
+    <t>102320.00</t>
+  </si>
+  <si>
+    <t>233508.34</t>
+  </si>
+  <si>
+    <t>15063.40</t>
+  </si>
+  <si>
+    <t>84304.01</t>
+  </si>
+  <si>
+    <t>15527.50</t>
+  </si>
+  <si>
+    <t>5521.19</t>
+  </si>
+  <si>
+    <t>11811.44</t>
+  </si>
+  <si>
+    <t>8645.00</t>
+  </si>
+  <si>
+    <t>8920.00</t>
+  </si>
+  <si>
+    <t>910.00</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>3120.00</t>
+  </si>
+  <si>
+    <t>14664.00</t>
+  </si>
+  <si>
+    <t>10400.85</t>
+  </si>
+  <si>
+    <t>982.00</t>
+  </si>
+  <si>
+    <t>184.60</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>14.80</t>
+  </si>
+  <si>
+    <t>495.00</t>
+  </si>
+  <si>
+    <t>2300.00</t>
+  </si>
+  <si>
+    <t>3347.80</t>
+  </si>
+  <si>
+    <t>48971.83</t>
+  </si>
+  <si>
+    <t>440.00</t>
+  </si>
+  <si>
+    <t>13856.58</t>
+  </si>
+  <si>
+    <t>137.00</t>
+  </si>
+  <si>
+    <t>109.35</t>
+  </si>
+  <si>
+    <t>612.72</t>
+  </si>
+  <si>
+    <t>833.50</t>
+  </si>
+  <si>
+    <t>602.00</t>
+  </si>
+  <si>
+    <t>42130.50</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>17294.50</t>
+  </si>
+  <si>
+    <t>498.19</t>
+  </si>
+  <si>
+    <t>292.24</t>
+  </si>
+  <si>
+    <t>316.00</t>
+  </si>
+  <si>
+    <t>2850.00</t>
+  </si>
+  <si>
+    <t>20549.55</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>172.00</t>
+  </si>
+  <si>
+    <t>4779.35</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>38937.78</t>
+  </si>
+  <si>
+    <t>5471.00</t>
+  </si>
+  <si>
+    <t>5105.00</t>
+  </si>
+  <si>
+    <t>13925.48</t>
+  </si>
+  <si>
+    <t>1346.85</t>
+  </si>
+  <si>
+    <t>2802.31</t>
+  </si>
+  <si>
+    <t>106467.09</t>
+  </si>
+  <si>
+    <t>105304.72</t>
+  </si>
+  <si>
+    <t>763.20</t>
+  </si>
+  <si>
+    <t>213.55</t>
+  </si>
+  <si>
+    <t>695.00</t>
+  </si>
+  <si>
+    <t>7.28</t>
+  </si>
+  <si>
+    <t>70076.66</t>
+  </si>
+  <si>
+    <t>6805.24</t>
+  </si>
+  <si>
+    <t>2060.80</t>
+  </si>
+  <si>
+    <t>740.00</t>
+  </si>
+  <si>
+    <t>1900.00</t>
+  </si>
+  <si>
+    <t>1965.50</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>337.87</t>
+  </si>
+  <si>
+    <t>2412.90</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>1329.16</t>
+  </si>
+  <si>
+    <t>2865.00</t>
+  </si>
+  <si>
+    <t>100148.00</t>
+  </si>
+  <si>
+    <t>31400.00</t>
+  </si>
+  <si>
+    <t>1768.04</t>
+  </si>
+  <si>
+    <t>2612.22</t>
+  </si>
+  <si>
+    <t>1717.05</t>
+  </si>
+  <si>
+    <t>1327.76</t>
+  </si>
+  <si>
+    <t>48.28</t>
+  </si>
+  <si>
+    <t>12250.00</t>
+  </si>
+  <si>
+    <t>807.00</t>
+  </si>
+  <si>
+    <t>2371.77</t>
+  </si>
+  <si>
+    <t>11400.00</t>
+  </si>
+  <si>
+    <t>77.00</t>
+  </si>
+  <si>
+    <t>17834.00</t>
+  </si>
+  <si>
+    <t>2180.00</t>
+  </si>
+  <si>
+    <t>592.14</t>
+  </si>
+  <si>
+    <t>1299.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>66000.00</t>
+  </si>
+  <si>
+    <t>2620.00</t>
+  </si>
+  <si>
+    <t>15804.00</t>
+  </si>
+  <si>
+    <t>1420.00</t>
+  </si>
+  <si>
+    <t>780.00</t>
+  </si>
+  <si>
+    <t>6090.00</t>
+  </si>
+  <si>
+    <t>18131.95</t>
+  </si>
+  <si>
+    <t>66976.00</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>930.00</t>
+  </si>
+  <si>
+    <t>707.60</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>83008.00</t>
+  </si>
+  <si>
+    <t>770.80</t>
+  </si>
+  <si>
+    <t>2010.00</t>
+  </si>
+  <si>
+    <t>687.64</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>111.90</t>
+  </si>
+  <si>
+    <t>318.90</t>
+  </si>
+  <si>
+    <t>52000.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>1.38</t>
+  </si>
+  <si>
+    <t>540000.00</t>
+  </si>
+  <si>
+    <t>60815.93</t>
+  </si>
+  <si>
+    <t>130.29</t>
+  </si>
+  <si>
+    <t>681.25</t>
+  </si>
+  <si>
+    <t>19.30</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>138.80</t>
+  </si>
+  <si>
+    <t>19.78</t>
+  </si>
+  <si>
+    <t>3843.05</t>
+  </si>
+  <si>
+    <t>273.98</t>
+  </si>
+  <si>
+    <t>260.00</t>
+  </si>
+  <si>
+    <t>3691.00</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>41.90</t>
+  </si>
+  <si>
+    <t>199.33</t>
+  </si>
+  <si>
+    <t>453.00</t>
+  </si>
+  <si>
+    <t>2280.00</t>
+  </si>
+  <si>
+    <t>126.64</t>
+  </si>
+  <si>
+    <t>12704.90</t>
+  </si>
+  <si>
+    <t>980.10</t>
+  </si>
+  <si>
+    <t>2871.26</t>
+  </si>
+  <si>
+    <t>397.28</t>
+  </si>
+  <si>
+    <t>8400.00</t>
+  </si>
+  <si>
+    <t>745.00</t>
+  </si>
+  <si>
+    <t>3212.34</t>
+  </si>
+  <si>
+    <t>6510.00</t>
+  </si>
+  <si>
+    <t>5754.00</t>
+  </si>
+  <si>
+    <t>280.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>1267.70</t>
+  </si>
+  <si>
+    <t>38700.00</t>
+  </si>
+  <si>
+    <t>20357.00</t>
+  </si>
+  <si>
+    <t>9200.00</t>
+  </si>
+  <si>
+    <t>2750.00</t>
+  </si>
+  <si>
+    <t>6400.00</t>
+  </si>
+  <si>
+    <t>1250.00</t>
+  </si>
+  <si>
+    <t>1260.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>8490.00</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>1480.32</t>
+  </si>
+  <si>
+    <t>823.30</t>
+  </si>
+  <si>
+    <t>10600.00</t>
+  </si>
+  <si>
+    <t>73.27</t>
+  </si>
+  <si>
+    <t>102.25</t>
+  </si>
+  <si>
+    <t>2826.55</t>
+  </si>
+  <si>
+    <t>524.12</t>
+  </si>
+  <si>
+    <t>132344.00</t>
+  </si>
+  <si>
+    <t>5040.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>850.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>7453.60</t>
+  </si>
+  <si>
+    <t>384.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>17608.51</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>8720.00</t>
+  </si>
+  <si>
+    <t>640.00</t>
+  </si>
+  <si>
+    <t>670.00</t>
+  </si>
+  <si>
+    <t>3146.00</t>
+  </si>
+  <si>
+    <t>2769.20</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>2590.00</t>
+  </si>
+  <si>
+    <t>1658.19</t>
+  </si>
+  <si>
+    <t>87715.00</t>
+  </si>
+  <si>
+    <t>4640.00</t>
+  </si>
+  <si>
+    <t>282.00</t>
+  </si>
+  <si>
+    <t>985.78</t>
+  </si>
+  <si>
+    <t>434.00</t>
+  </si>
+  <si>
+    <t>5089.00</t>
+  </si>
+  <si>
+    <t>9301.75</t>
+  </si>
+  <si>
+    <t>2276.88</t>
+  </si>
+  <si>
+    <t>27483.00</t>
+  </si>
+  <si>
+    <t>2100.00</t>
+  </si>
+  <si>
+    <t>14571.59</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>34.80</t>
+  </si>
+  <si>
+    <t>2099.64</t>
+  </si>
+  <si>
+    <t>6514.16</t>
+  </si>
+  <si>
+    <t>12504.36</t>
+  </si>
+  <si>
+    <t>4267.29</t>
+  </si>
+  <si>
+    <t>62.20</t>
+  </si>
+  <si>
+    <t>4801.70</t>
+  </si>
+  <si>
+    <t>495.30</t>
+  </si>
+  <si>
+    <t>99.52</t>
+  </si>
+  <si>
+    <t>680.00</t>
+  </si>
+  <si>
+    <t>419.90</t>
+  </si>
+  <si>
+    <t>247.00</t>
+  </si>
+  <si>
+    <t>18525.00</t>
+  </si>
+  <si>
+    <t>4981.00</t>
+  </si>
+  <si>
+    <t>528.00</t>
+  </si>
+  <si>
+    <t>40.98</t>
+  </si>
+  <si>
+    <t>388.49</t>
+  </si>
+  <si>
+    <t>1598.40</t>
+  </si>
+  <si>
+    <t>9920.39</t>
+  </si>
+  <si>
+    <t>8728.16</t>
+  </si>
+  <si>
+    <t>829.80</t>
+  </si>
+  <si>
+    <t>191659.77</t>
+  </si>
+  <si>
+    <t>7311.46</t>
+  </si>
+  <si>
+    <t>2297.97</t>
+  </si>
+  <si>
+    <t>19500.00</t>
+  </si>
+  <si>
+    <t>1050.00</t>
+  </si>
+  <si>
+    <t>1580.00</t>
+  </si>
+  <si>
+    <t>119923.42</t>
+  </si>
+  <si>
+    <t>433000.00</t>
+  </si>
+  <si>
+    <t>75000.00</t>
+  </si>
+  <si>
+    <t>126000.00</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>50000.00</t>
+  </si>
+  <si>
+    <t>233666.00</t>
+  </si>
+  <si>
+    <t>461000.00</t>
+  </si>
+  <si>
+    <t>223000.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>378590.05</t>
+  </si>
+  <si>
+    <t>690.00</t>
+  </si>
+  <si>
+    <t>174600.00</t>
+  </si>
+  <si>
+    <t>3128.44</t>
+  </si>
+  <si>
+    <t>36163.36</t>
+  </si>
+  <si>
+    <t>62300.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>349125.00</t>
+  </si>
+  <si>
+    <t>6200.00</t>
+  </si>
+  <si>
+    <t>15.40</t>
+  </si>
+  <si>
+    <t>1510.00</t>
   </si>
 </sst>
 </file>
